--- a/jpcore-r4/feature/swg-diagnosticreport-cardinality/ValueSet-jp-procedure-devicekind-vs.xlsx
+++ b/jpcore-r4/feature/swg-diagnosticreport-cardinality/ValueSet-jp-procedure-devicekind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T00:53:16+00:00</t>
+    <t>2022-09-05T00:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg-diagnosticreport-cardinality/ValueSet-jp-procedure-devicekind-vs.xlsx
+++ b/jpcore-r4/feature/swg-diagnosticreport-cardinality/ValueSet-jp-procedure-devicekind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T00:59:28+00:00</t>
+    <t>2022-09-05T01:22:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg-diagnosticreport-cardinality/ValueSet-jp-procedure-devicekind-vs.xlsx
+++ b/jpcore-r4/feature/swg-diagnosticreport-cardinality/ValueSet-jp-procedure-devicekind-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T01:22:24+00:00</t>
+    <t>2022-09-05T04:16:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
